--- a/power.xlsx
+++ b/power.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Landon\Documents\University of Akron\SDP\autocoffee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA55182-86B1-41C7-80B3-E5D76A5D3253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7883AEFE-2F4D-44E0-8760-77058B03B5EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14670" yWindow="1980" windowWidth="26265" windowHeight="17730" xr2:uid="{7D14E45A-903B-472E-A95B-4E24BFDB7F5E}"/>
   </bookViews>
@@ -450,7 +450,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D2:D6"/>
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/power.xlsx
+++ b/power.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Landon\Documents\University of Akron\SDP\autocoffee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7883AEFE-2F4D-44E0-8760-77058B03B5EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6C1B9A-29F5-45A6-9910-796F42D7264D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14670" yWindow="1980" windowWidth="26265" windowHeight="17730" xr2:uid="{7D14E45A-903B-472E-A95B-4E24BFDB7F5E}"/>
+    <workbookView xWindow="9120" yWindow="1965" windowWidth="26265" windowHeight="17730" xr2:uid="{7D14E45A-903B-472E-A95B-4E24BFDB7F5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,9 +42,6 @@
     <t>Qty</t>
   </si>
   <si>
-    <t>Stepper Motors (x5)</t>
-  </si>
-  <si>
     <t>Water pump</t>
   </si>
   <si>
@@ -76,6 +73,9 @@
   </si>
   <si>
     <t xml:space="preserve">VL6180X </t>
+  </si>
+  <si>
+    <t>Stepper Motors (x6)</t>
   </si>
 </sst>
 </file>
@@ -450,7 +450,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P34" sqref="P34"/>
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,19 +463,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>0</v>
@@ -500,7 +500,7 @@
         <v>1.65</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -522,7 +522,7 @@
         <v>0.16500000000000001</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -544,7 +544,7 @@
         <v>0.75</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -566,7 +566,7 @@
         <v>0.19799999999999998</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -588,7 +588,7 @@
         <v>9.8999999999999991E-2</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -611,7 +611,7 @@
         <v>335.30111999999997</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -633,7 +633,7 @@
         <v>7.1999999999999993</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -655,7 +655,7 @@
         <v>12</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
